--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value821.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value821.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6490052871318589</v>
+        <v>1.486941814422607</v>
       </c>
       <c r="B1">
-        <v>3.988601676215346</v>
+        <v>3.583910465240479</v>
       </c>
       <c r="C1">
-        <v>2.265022995052964</v>
+        <v>2.564816236495972</v>
       </c>
       <c r="D1">
-        <v>1.684254335226751</v>
+        <v>1.322996735572815</v>
       </c>
       <c r="E1">
-        <v>1.480599821510765</v>
+        <v>0.7646856904029846</v>
       </c>
     </row>
   </sheetData>
